--- a/Income/FSLR_inc.xlsx
+++ b/Income/FSLR_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>2982374000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>2711000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>3501000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>3119806000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>3062762000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>3062740000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>2354981000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>2484395000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>2208757000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>2244044000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>1891983900.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>2302789900.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>2616797900.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>2941323900.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>2932938000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>2527188000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>2920286000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>2904563000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>4049747000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>4639716000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>4519509000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>4112650000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>3643059000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>3262102000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>2910238000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>3391187000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>3153862900.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>3529161900.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>3504568900.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>3309615900.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>3615563000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>3189123000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>3626695000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>3368545000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>2953886000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>3120527000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>2695969000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>2766207000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>2715656000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>2507767000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>2204607000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>2028000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>2647000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>2421443000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>2424217000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>2514083000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>2041013900.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>2179663900.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>1989265900.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>1851866900.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>1536046900.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>1784179900.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>1979236900.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>2392376900.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>2438213000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>2153355000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>2475295000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>2266145000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>2974244000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>3250756000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>3148117000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>2979888000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>2649127200.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>2563133200.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>2283027200.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>2566246200.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>2443850900.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>2644517900.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>2572551900.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>2444983900.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>2648557900.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>2347435900.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>2681364900.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>2515795900.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>2256560000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>2282753000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>1907138000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>1794456000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>1585305000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>1434688000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>776767000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>682000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>853000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>698363000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>638545000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>548657000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>313967100.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>304731100.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>219491100.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>392177100.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>355937000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>518610000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>637561000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>548947000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>494725000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>373833000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>444991000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>638418000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>1075503000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>1388960000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>1371392000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>1132762000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>993931700.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>698968700.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>627210700.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>824940700.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>710012000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>884644100.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>932017100.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>864632100.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>967005200.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>841687000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>945330000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>852749000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>697325900.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>837774000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>788831000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>971751000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>1130351000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>1073079000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>87873000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>94000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>96000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>97912000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>100307000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>96184000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>92572000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>90050000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>86025000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>84472000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>86667000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>85127000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>86098000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>88573000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>94461000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>105784000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>117374000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>124762000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>132019000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>129476000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>126024000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>130593000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>128809000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>136772000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>139952000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>143969000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>147446000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>144837000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>143142000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>134300000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>127518000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>124906000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>126307000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>132460000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>138727000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>144519000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>145256000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>140523000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>130218000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>113526000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>217087000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>224000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>217000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>220542000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>219476000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>205828000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>201166000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>181163000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>181083000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>176857000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>180516000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>197523000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>195626000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>202699000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>218072000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>227871000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>242690000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>261994000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>254511000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>247882000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>255007000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>255192000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>263273000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>276085000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>262851000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>253827000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>248520000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>245862000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>254460000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>270261000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>268017000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>277654000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>263573000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>280928000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>343437000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>382673000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>417361000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>412541000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>377897000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>350115000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>568181300.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>317489200.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>141848900.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>-24010000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>-83490100.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>-161785100.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>-32910900.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>-15740100.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>-110790100.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>40112900.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>-5966000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>142548100.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>260110100.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>177851100.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>-608230700.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>-741895700.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>-756066600.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>-568150600.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>598320000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>922817000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>980192900.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>730158900.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>581783100.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>267837100.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>212612100.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>421999100.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>287256800.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>411285900.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>448473900.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>370406900.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>480222300.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>379363100.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>479926000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>-37563000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>-694898300.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>-579200200.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>-654329100.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>-68664100.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>582307000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>571202000.0</v>
       </c>
     </row>
@@ -989,17 +1011,17 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>19000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>21000000.0</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1176,6 +1198,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1188,120 +1215,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>-26187000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>-43000000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>341000000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>353288000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>362165000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>382984000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>51161000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>51777000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>58794000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>73034000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>38435000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>35824000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>22968000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>24264000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>10647000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>12808000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>20178000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>30900000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>40171000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>35783000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>33858000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>3171000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>7670000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>10959000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>11934000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>10102000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>10211000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>7640000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>7148000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>10572000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>6291000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>9223000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>2945000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>-2241000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>3078000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>-616000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>11123000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>14951000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>18787000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>20042000.0</v>
       </c>
     </row>
@@ -1312,112 +1342,110 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>9996000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>16000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>25000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>27976000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>32897000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>34018000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>35494000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>33716000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>30860000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>25921000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>20518000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>21469000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>21778000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>25765000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>22874000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>24288000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>25065000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>20538000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>21536000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>17748000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>11423000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>6975000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>3348000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>1662000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>1766000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>1982000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>1413000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>1599000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>1544000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>1884000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>4594000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>7221000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>13718000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>13888000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>11200000.0</v>
       </c>
-      <c r="AJ10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AK10" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1434,6 +1462,11 @@
         </is>
       </c>
       <c r="AN10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO10" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1446,120 +1479,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>548161000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>294000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>152000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>4592100.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>-49114900.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>-119934900.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>18250100.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>36037000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>-51996000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>113147000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>32469000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>178372000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>283078000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>202115000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>-597584000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>-729088000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>-735889000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>-537251000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>638491000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>958600000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>1014051000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>733330000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>589453000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>278796000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>224546000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>432101000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>297468000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>418926000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>455622000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>380979000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>486513000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>388586000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>482871000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>-39804000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>-691820000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>-579816000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>-643206000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>-53713000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>601094100.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>591244100.0</v>
       </c>
     </row>
@@ -1570,120 +1606,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>28490000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>-107000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>-72000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>-94965000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>-93221000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>-5615000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>20969000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>8330000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>-9578000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>3441000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>406622000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>411806000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>377942000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>371996000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>29284000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>-46501000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>815000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>23167000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>-9691000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>106968000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>66340000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>32329000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>20583000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>-34819000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>-3645000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>31188000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>21676000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>42274000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>51904000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>30098000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>44557000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>53751000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>70651000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>56534000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>-28191000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>-24784000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>-38329000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>-14220000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>71530000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>81325000.0</v>
       </c>
     </row>
@@ -1694,120 +1733,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>519363000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>400484000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>223173000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>98628100.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>43569100.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>-114648900.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>-2718900.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>27707000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>-42418000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>109706000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>-374153000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>-233434000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>-94864000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>-169881000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>-626868000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>-682587000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>-736704000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>-560418000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>648182100.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>851632100.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>947711100.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>701001100.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>568870000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>313615000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>228191000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>400913000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>275792000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>376652000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>403718000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>350881000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>441956000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>334835000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>412220000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>-96338000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>-663629000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>-555032000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>-604877000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>-39493000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>529564100.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>509919100.0</v>
       </c>
     </row>
@@ -1818,85 +1860,83 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>-2041000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>-2129000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>71000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>201000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>-199000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>-284000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>-690000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>-3988000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>36194000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>34620000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>33909000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>41187000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>3071000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>4266000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>142917000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>143346000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>134085000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>144306000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>-102384000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>-106973000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>-97752000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>-107595000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>3012000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>-1218000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>-5151000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>-4949000.0</v>
       </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AB14" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1958,6 +1998,11 @@
         </is>
       </c>
       <c r="AN14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1970,120 +2015,123 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>517671000.0</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>399000000.0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>224000000.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>99622000.0</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>44074000.0</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>-114525000.0</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>-3409000.0</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>23719000.0</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>-6224000.0</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>144326000.0</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>-340244000.0</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>-192247000.0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>-91793000.0</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>-165615000.0</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>-483951000.0</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>-539241000.0</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>-602619000.0</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>-416112000.0</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>545798000.0</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>744659000.0</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>849959000.0</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>593406000.0</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>571882000.0</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>312397000.0</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>223040000.0</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>395964000.0</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>269308000.0</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>374513000.0</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>403583000.0</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>350718000.0</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>441956000.0</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>334835000.0</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>412220000.0</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>-96338000.0</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>-663629000.0</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>-555032000.0</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>-604877000.0</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>-39493000.0</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>529564000.0</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>509919000.0</v>
       </c>
     </row>
@@ -2093,121 +2141,126 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>3.73</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>2.09</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>-1.09</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>-0.03</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.23</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>-0.05</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>1.38</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>-3.26</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>-1.84</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>-0.88</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>-1.58</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>-4.36</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>-4.84</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>-5.21</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>-3.63</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>4.91</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>6.88</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>7.69</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>5.4</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>5.69</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>3.11</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>2.22</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>3.96</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>3.81</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>4.14</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>3.7</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>4.81</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>3.84</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>4.74</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>-1.14</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>-7.69</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>-6.42</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>-6.99</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>-0.43</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>6.18</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>5.98</v>
       </c>
     </row>
@@ -2218,120 +2271,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>0.2605</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.2516</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>0.2436</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.2238</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.2085</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>0.1791</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.1333</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.1227</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.0994</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.1748</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.1881</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0.2252</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>0.2436</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.1866</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.1687</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>0.1479</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>0.1524</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>0.2198</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>0.2656</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.2994</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>0.3034</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>0.2754</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>0.2728</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>0.2143</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>0.2155</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.2433</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>0.2251</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.2507</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>0.2659</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>0.2612</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>0.2675</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>0.2639</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>0.2607</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>0.2532</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>0.2361</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>0.2685</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>0.2926</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>0.3513</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>0.4162</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>0.4279</v>
       </c>
     </row>
@@ -2342,120 +2398,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>0.1905</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.1171</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.0405</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>-0.0077</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>-0.0273</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>-0.0528</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>-0.014</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>-0.0063</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>-0.0502</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.0179</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>-0.0032</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>0.0619</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>0.0994</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.0605</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>-0.2074</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>-0.2936</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>-0.2589</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>-0.1956</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>0.1477</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.1989</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>0.2169</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>0.1775</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>0.1597</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>0.0821</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>0.0731</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>0.1244</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>0.0911</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>0.1165</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>0.128</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>0.1119</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>0.1328</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>0.119</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>0.1323</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>-0.0112</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>-0.2352</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>-0.1856</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>-0.2427</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>-0.0248</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>0.2144</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>0.2278</v>
       </c>
     </row>
@@ -2466,120 +2525,123 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>0.1838</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.1084</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.0434</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>0.0015</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>-0.016</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>-0.0392</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.0077</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.0145</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>-0.0235</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.0504</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.0172</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.0775</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>0.1082</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.0687</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>-0.2037</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>-0.2885</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>-0.252</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>-0.185</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>0.1577</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>0.2066</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>0.2244</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>0.1783</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.1618</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>0.0855</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>0.0772</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>0.1274</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>0.0943</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>0.1187</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>0.1151</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>0.1346</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>0.1218</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>0.1331</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>-0.0118</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>-0.2342</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>-0.1858</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>-0.2386</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>-0.0194</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>0.2213</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.2358</v>
       </c>
     </row>
@@ -2590,120 +2652,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>0.1736</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>0.1472</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>0.064</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>0.0319</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>0.0144</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>-0.0374</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>-0.0014</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>0.0095</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>-0.0028</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>0.0643</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>-0.1798</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>-0.0835</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>-0.0351</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>-0.0563</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>-0.165</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>-0.2134</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>-0.2064</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>-0.1433</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>0.1348</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>0.1605</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>0.1881</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>0.1443</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>0.157</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>0.0958</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>0.0766</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>0.1168</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>0.0854</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>0.1061</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>0.1152</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>0.106</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>0.1222</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>0.105</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>0.1137</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>-0.0286</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>-0.2247</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>-0.1779</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>-0.2244</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>-0.0143</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>0.195</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>0.2033</v>
       </c>
     </row>
@@ -2714,120 +2779,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>-0.0442</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>-0.14</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>0.042</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>-0.1458</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>-0.2153</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>-0.1615</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>-0.6084</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>-0.5617</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>-0.5869</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>-0.4753</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>-0.2734</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>0.1866</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>0.0853</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>0.2809</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>0.275</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>0.0763</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>0.1113</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>-0.0078</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>-0.0434</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>-0.0151</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>0.0046</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>-0.1195</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>0.0977</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>0.0803</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>0.1261</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>0.1409</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>-0.0567</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>0.0694</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>0.0931</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>0.2085</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>0.202</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>0.1222</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>0.1443</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>0.1152</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>-0.0038</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>-0.2569</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>-0.2764</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>-0.1915</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>-0.1548</v>
       </c>
     </row>
@@ -2838,120 +2906,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>852553100.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>598000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>769000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>580458100.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>501818100.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>413051100.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>158603100.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>159047900.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>44398900.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>170848900.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>108987000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>251685100.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>366874100.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>293164100.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>-459959700.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>-565094700.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>-550533600.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>-337210600.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>834443000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>1166564000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>1233132900.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>987983900.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>838365100.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>519480100.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>460950100.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>667797100.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>531781800.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>655907900.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>686948900.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>604776900.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>713791300.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>616910100.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>726093000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>225153000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>-30698300.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>83337800.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>-838100.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>559931900.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>792004000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>753835000.0</v>
       </c>
     </row>
@@ -2962,120 +3033,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>568181100.0</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>317489000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>141848900.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>-24010000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>-83490100.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>-161785100.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>-32911000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>-15740200.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>-110790200.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>40112800.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>-5966000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>142548100.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>260110100.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>177851100.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>-608231000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>-741896000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>-756066900.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>-568150900.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>598320100.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>922817100.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>980193000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>730159000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>581783000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>267837000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>212612000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>421999000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>287256900.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>411286000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>448474000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>370407000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>480222200.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>379363000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>479925900.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>-37563100.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>-694898300.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>-579200200.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>-654329100.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>-68664100.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>582307000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>571202000.0</v>
       </c>
     </row>
@@ -3086,120 +3160,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>4.8429</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>3.7339</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>2.0915</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>0.9275</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>0.4048</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>-1.0913</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>-0.0326</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>0.2231</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>-0.0637</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>1.3601</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>-3.2574</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>-1.8541</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>-0.8946</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>-1.5875</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>-4.7542</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>-5.2504</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>-5.8587</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>-4.0452</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>5.3369</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>7.3005</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>8.3361</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>5.8283</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>5.5971</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>3.0682</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>2.1887</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>3.8956</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>2.7306</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>3.7878</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>4.1119</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>3.6736</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>4.7914</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>3.8501</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>4.7477</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>-1.1091</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>-7.6748</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>-6.4216</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>-6.9861</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>-0.4588</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>6.0835</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>5.8707</v>
       </c>
     </row>
@@ -3210,120 +3287,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>4.8803</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>3.7629</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>2.1082</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>0.9356</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>0.4111</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>-1.0914</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>-0.0328</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>0.2277</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>-0.0591</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>1.3778</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>-3.2617</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>-1.8425</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>-0.8817</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>-1.5874</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>-4.7544</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>-5.2686</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>-5.8782</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>-4.0451</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>5.3613</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>7.3671</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>8.4096</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>5.8819</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>5.6771</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>3.1119</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>2.2262</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>3.9578</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>2.7791</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>3.8582</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>4.1897</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>3.7432</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>4.8282</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>3.8631</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>4.7642</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>-1.1091</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>-7.7104</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>-6.4449</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>-7.0131</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>-0.4589</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>6.1761</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>5.9791</v>
       </c>
     </row>
@@ -3334,120 +3414,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>4.8803</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>3.7629</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>2.1082</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>0.9356</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>0.4111</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>-1.0914</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>-0.0328</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>0.2277</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>-0.0591</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>1.3778</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>-3.2617</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>-1.8425</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>-0.8817</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>-1.5874</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>-4.7544</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>-5.2686</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>-5.8782</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>-4.0451</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>5.3613</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>7.3671</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>8.4096</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>5.8819</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>5.6771</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>3.1119</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>2.2262</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>3.9578</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>2.7791</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>3.8582</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>4.1897</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>3.7432</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>4.8282</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>3.8631</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>4.7642</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>-1.1091</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>-7.7104</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>-6.4449</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>-7.0131</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>-0.4589</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>6.1761</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>5.9791</v>
       </c>
     </row>
@@ -3458,120 +3541,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>517322000.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>398355000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>223244000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>98829100.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>43370100.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>-114932900.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>-3408900.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>23719000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>-6224000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>144326000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>-340244000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>-192247000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>-91793000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>-165615000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>-483951000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>-539241000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>-602619000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>-416112000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>545798000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>744659000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>849959000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>593406000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>571882000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>312397000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>223040000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>395964000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>269308000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>374513000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>403583000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>350718000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>441956000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>334835000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>412220000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>-96338000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>-663629000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>-555032000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>-604877000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>-39493000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>529564100.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>509919100.0</v>
       </c>
     </row>
@@ -3582,120 +3668,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>517671000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>399000000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>224000000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>99622100.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>44074100.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>-114524900.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>-3408900.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>23719000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>-6224000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>144326000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>-340244000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>-192247000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>-91793000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>-165615000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>-483951000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>-539241000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>-602619000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>-416112000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>545798000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>744659000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>849959000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>593406000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>571882000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>312397000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>223040000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>395964000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>269308000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>374513000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>403583000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>350718000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>441956000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>334835000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>412220000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>-96338000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>-663629000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>-555032000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>-604877000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>-39493000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>529564100.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>509919100.0</v>
       </c>
     </row>
@@ -3706,120 +3795,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>0.2859</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>0.2206</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>0.2197</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>0.1861</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>0.1638</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>0.1349</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>0.0673</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>0.064</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>0.0201</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>0.0761</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>0.0576</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>0.1093</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>0.1402</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>0.0997</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>-0.1568</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>-0.2236</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>-0.1885</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>-0.1161</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>0.206</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>0.2514</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>0.2728</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>0.2402</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>0.2301</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>0.1592</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>0.1584</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>0.1969</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>0.1686</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>0.1859</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>0.196</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>0.1827</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>0.1974</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>0.1934</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>0.2002</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>0.0668</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>-0.0104</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>0.0267</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>0.2024</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>0.2916</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>0.3006</v>
       </c>
     </row>
@@ -3830,120 +3922,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>0.0137</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>0.1807</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>0.0343</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>-0.0089</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>0.0569</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>-0.3367</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>-0.282</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>-0.2648</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>-0.1456</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>0.1547</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>0.4773</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>0.3066</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>0.4558</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>0.4007</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>0.2016</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>0.2108</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>0.0712</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>0.0067</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>0.0285</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>0.0406</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>-0.0791</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>0.1561</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>0.1534</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>0.2162</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>0.2169</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>-0.0174</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>0.1041</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>0.1345</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>0.2587</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>0.2742</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>0.2003</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>0.2329</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>0.2263</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>0.1508</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>0.2005</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>-0.0021</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>-0.0121</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>0.1125</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>0.14</v>
       </c>
     </row>
